--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10135" uniqueCount="7131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10137" uniqueCount="7133">
   <si>
     <t>我  是  大  标  题_1</t>
   </si>
@@ -21503,14 +21503,24 @@
     <t>tele</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.0000_);\(0.0000\)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -21825,7 +21835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21841,19 +21851,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -21868,7 +21869,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -21914,7 +21915,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -21962,16 +21963,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -21984,6 +21979,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -22302,14 +22318,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="1" t="s">
@@ -42356,14 +42372,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="52" t="s">
         <v>6007</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="3" t="s">
@@ -56390,10 +56406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -56403,878 +56419,1204 @@
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="25.25" customWidth="1"/>
     <col min="5" max="5" width="39.875" customWidth="1"/>
+    <col min="6" max="6" width="19.875" style="48" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="48" t="s">
         <v>7126</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="48" t="s">
         <v>7130</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="48" t="s">
         <v>7127</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="48" t="s">
         <v>7128</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="48" t="s">
         <v>7129</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="F1" s="48" t="s">
+        <v>7131</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>7132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>7009</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>816</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>13822138970</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>67599631</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>7010</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="13" t="s">
+      <c r="F2" s="49">
+        <v>41264</v>
+      </c>
+      <c r="G2" s="55">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="10" t="s">
         <v>7011</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>123.1253</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>18602051174</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>34530184</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>7012</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="18" t="s">
+      <c r="F3" s="49">
+        <v>41265</v>
+      </c>
+      <c r="G3" s="55">
+        <v>123457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="15" t="s">
         <v>7013</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="15">
         <v>809</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="16">
         <v>13503083985</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>5202482</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>7014</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="21" t="s">
+      <c r="F4" s="49">
+        <v>41266</v>
+      </c>
+      <c r="G4" s="55">
+        <v>123458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="18" t="s">
         <v>7015</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="15">
         <v>809</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>13699731716</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="19">
         <v>1005309689</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>7016</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25">
-      <c r="A6" s="21" t="s">
+      <c r="F5" s="49">
+        <v>41267</v>
+      </c>
+      <c r="G5" s="55">
+        <v>123459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="18" t="s">
         <v>7017</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>123.1253</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>13724841499</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="19">
         <v>309504846</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>7018</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="21" t="s">
+      <c r="F6" s="49">
+        <v>41268</v>
+      </c>
+      <c r="G6" s="55">
+        <v>123460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7" s="18" t="s">
         <v>7019</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>123.1253</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>15915725922</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>229867537</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>7020</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
+      <c r="F7" s="49">
+        <v>41269</v>
+      </c>
+      <c r="G7" s="55">
+        <v>123461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10" t="s">
         <v>7021</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>826</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>18688896161</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>84694091</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>7022</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="18" t="s">
+      <c r="F8" s="49">
+        <v>41270</v>
+      </c>
+      <c r="G8" s="55">
+        <v>123462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15" t="s">
         <v>7023</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>7024</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>13600000607</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <v>516753</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>7025</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="F9" s="49">
+        <v>41271</v>
+      </c>
+      <c r="G9" s="55">
+        <v>123463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="10" t="s">
         <v>7026</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>826</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="21">
         <v>13824462182</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>154189799</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>7027</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
+      <c r="F10" s="49">
+        <v>41272</v>
+      </c>
+      <c r="G10" s="55">
+        <v>123464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10" t="s">
         <v>7028</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>7029</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>15920382053</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>364150686</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>7030</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="F11" s="49">
+        <v>41273</v>
+      </c>
+      <c r="G11" s="55">
+        <v>123465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="10" t="s">
         <v>7031</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="24">
+      <c r="B12" s="6"/>
+      <c r="C12" s="21">
         <v>13725184413</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>1062683476</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>7032</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25">
-      <c r="A13" s="18" t="s">
+      <c r="F12" s="49">
+        <v>41274</v>
+      </c>
+      <c r="G12" s="55">
+        <v>123466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25">
+      <c r="A13" s="15" t="s">
         <v>7033</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="18">
+      <c r="B13" s="23"/>
+      <c r="C13" s="15">
         <v>13580508732</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="22">
         <v>1678961213</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="9" t="s">
         <v>7034</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="18" t="s">
+      <c r="F13" s="49">
+        <v>41275</v>
+      </c>
+      <c r="G13" s="55">
+        <v>123467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="15" t="s">
         <v>7035</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>826</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="15">
         <v>13711472541</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="20">
         <v>242480233</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="9" t="s">
         <v>7036</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25">
-      <c r="A15" s="27" t="s">
+      <c r="F14" s="49">
+        <v>41276</v>
+      </c>
+      <c r="G14" s="55">
+        <v>123468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25">
+      <c r="A15" s="24" t="s">
         <v>7037</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>826</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="24">
         <v>13265103128</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="25">
         <v>645443037</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>7038</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="13" t="s">
+      <c r="F15" s="49">
+        <v>41277</v>
+      </c>
+      <c r="G15" s="55">
+        <v>123469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10" t="s">
         <v>7039</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>818</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>13710663000</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>707843159</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="9" t="s">
         <v>7040</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="13" t="s">
+      <c r="F16" s="49">
+        <v>41278</v>
+      </c>
+      <c r="G16" s="55">
+        <v>123470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10" t="s">
         <v>7041</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="18">
+      <c r="B17" s="6"/>
+      <c r="C17" s="15">
         <v>13632381968</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="20">
         <v>549536774</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="26" t="s">
         <v>7042</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="13" t="s">
+      <c r="F17" s="49">
+        <v>41279</v>
+      </c>
+      <c r="G17" s="55">
+        <v>123471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10" t="s">
         <v>7043</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="18">
+      <c r="B18" s="6"/>
+      <c r="C18" s="15">
         <v>18620426203</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="20">
         <v>286199347</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="26" t="s">
         <v>7044</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="15" t="s">
+      <c r="F18" s="49">
+        <v>41280</v>
+      </c>
+      <c r="G18" s="55">
+        <v>123472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12" t="s">
         <v>7045</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="27" t="s">
         <v>7046</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>18620287704</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="28">
         <v>9579858</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="9" t="s">
         <v>7047</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="15" t="s">
+      <c r="F19" s="49">
+        <v>41281</v>
+      </c>
+      <c r="G19" s="55">
+        <v>123473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12" t="s">
         <v>7048</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="27" t="s">
         <v>7049</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <v>13632318218</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="28">
         <v>313838475</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>7050</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="15" t="s">
+      <c r="F20" s="49">
+        <v>41282</v>
+      </c>
+      <c r="G20" s="55">
+        <v>123474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="12" t="s">
         <v>7051</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="27" t="s">
         <v>7052</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>18929578575</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="28">
         <v>32014398</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>7053</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="15" t="s">
+      <c r="F21" s="49">
+        <v>41283</v>
+      </c>
+      <c r="G21" s="55">
+        <v>123475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12" t="s">
         <v>7054</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="27" t="s">
         <v>7055</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>15914325232</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="28">
         <v>34376050</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>7056</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="18" t="s">
+      <c r="F22" s="49">
+        <v>41284</v>
+      </c>
+      <c r="G22" s="55">
+        <v>123476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="15" t="s">
         <v>7057</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="18">
+      <c r="B23" s="6"/>
+      <c r="C23" s="15">
         <v>13450375775</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="20" t="s">
         <v>7058</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="29" t="s">
         <v>7059</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="18" t="s">
+      <c r="F23" s="49">
+        <v>41285</v>
+      </c>
+      <c r="G23" s="55">
+        <v>123477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="15" t="s">
         <v>7060</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>7061</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="15">
         <v>18676890774</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="30">
         <v>80304241</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="29" t="s">
         <v>7062</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="13" t="s">
+      <c r="F24" s="49">
+        <v>41286</v>
+      </c>
+      <c r="G24" s="55">
+        <v>123478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10" t="s">
         <v>7063</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>7064</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>15017518100</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <v>45239123</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="29" t="s">
         <v>7065</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="18" t="s">
+      <c r="F25" s="49">
+        <v>41287</v>
+      </c>
+      <c r="G25" s="55">
+        <v>123479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="15" t="s">
         <v>7066</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="18">
+      <c r="B26" s="6"/>
+      <c r="C26" s="15">
         <v>13610305571</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="20">
         <v>149329847</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="29" t="s">
         <v>7067</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="34" t="s">
+      <c r="F26" s="49">
+        <v>41288</v>
+      </c>
+      <c r="G26" s="55">
+        <v>123480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="31" t="s">
         <v>7068</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="27">
         <v>836</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>18520032326</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="32">
         <v>14841994</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="9" t="s">
         <v>7069</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="13" t="s">
+      <c r="F27" s="49">
+        <v>41289</v>
+      </c>
+      <c r="G27" s="55">
+        <v>123481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10" t="s">
         <v>7070</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="6">
         <v>820</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <v>13826038111</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="8">
         <v>254603875</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="9" t="s">
         <v>7071</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="18" t="s">
+      <c r="F28" s="49">
+        <v>41290</v>
+      </c>
+      <c r="G28" s="55">
+        <v>123482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="15" t="s">
         <v>7072</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="6">
         <v>820</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="15">
         <v>18664875240</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="20" t="s">
         <v>7073</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="9" t="s">
         <v>7074</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.25">
-      <c r="A30" s="18" t="s">
+      <c r="F29" s="49">
+        <v>41291</v>
+      </c>
+      <c r="G29" s="55">
+        <v>123483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.25">
+      <c r="A30" s="15" t="s">
         <v>7075</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15">
         <v>18620909908</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="20">
         <v>249343314</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="14" t="s">
         <v>7076</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="15" t="s">
+      <c r="F30" s="49">
+        <v>41292</v>
+      </c>
+      <c r="G30" s="55">
+        <v>123484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12" t="s">
         <v>7077</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="15">
+      <c r="B31" s="6"/>
+      <c r="C31" s="12">
         <v>13202055678</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="28">
         <v>58870351</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="9" t="s">
         <v>7078</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.25">
-      <c r="A32" s="15" t="s">
+      <c r="F31" s="49">
+        <v>41293</v>
+      </c>
+      <c r="G31" s="55">
+        <v>123485</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.25">
+      <c r="A32" s="12" t="s">
         <v>7079</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="15">
+      <c r="B32" s="33"/>
+      <c r="C32" s="12">
         <v>18988800833</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="28">
         <v>373971974</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="9" t="s">
         <v>7080</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="15" t="s">
+      <c r="F32" s="49">
+        <v>41294</v>
+      </c>
+      <c r="G32" s="55">
+        <v>123486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12" t="s">
         <v>7081</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="15">
+      <c r="B33" s="27"/>
+      <c r="C33" s="12">
         <v>13580356324</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="28">
         <v>1241885287</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="9" t="s">
         <v>7082</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="15" t="s">
+      <c r="F33" s="49">
+        <v>41295</v>
+      </c>
+      <c r="G33" s="55">
+        <v>123487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="12" t="s">
         <v>7083</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="15">
+      <c r="B34" s="27"/>
+      <c r="C34" s="12">
         <v>13826402778</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="28">
         <v>88640292</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="9" t="s">
         <v>7084</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="15" t="s">
+      <c r="F34" s="49">
+        <v>41296</v>
+      </c>
+      <c r="G34" s="55">
+        <v>123488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12" t="s">
         <v>7085</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="27" t="s">
         <v>7052</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="12">
         <v>18620183767</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="28">
         <v>30498777</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="9" t="s">
         <v>7086</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="37" t="s">
+      <c r="F35" s="49">
+        <v>41297</v>
+      </c>
+      <c r="G35" s="55">
+        <v>123489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="34" t="s">
         <v>7087</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36" s="35">
         <v>805</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="16">
         <v>13798180153</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="17">
         <v>214630920</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="9" t="s">
         <v>7088</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="37" t="s">
+      <c r="F36" s="49">
+        <v>41298</v>
+      </c>
+      <c r="G36" s="55">
+        <v>123490</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="34" t="s">
         <v>7089</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="15">
         <v>819</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="16">
         <v>13826446951</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="17">
         <v>84818318</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="9" t="s">
         <v>7090</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="21" customHeight="1">
-      <c r="A38" s="18" t="s">
+      <c r="F37" s="49">
+        <v>41299</v>
+      </c>
+      <c r="G37" s="55">
+        <v>123491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="21" customHeight="1">
+      <c r="A38" s="15" t="s">
         <v>7091</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="18">
+      <c r="B38" s="35"/>
+      <c r="C38" s="15">
         <v>18682022558</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="20">
         <v>822867238</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="36" t="s">
         <v>7092</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A39" s="18" t="s">
+      <c r="F38" s="49">
+        <v>41300</v>
+      </c>
+      <c r="G38" s="55">
+        <v>123492</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A39" s="15" t="s">
         <v>7093</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="18">
+      <c r="B39" s="35"/>
+      <c r="C39" s="15">
         <v>13423617680</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="20">
         <v>617400313</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="37" t="s">
         <v>7094</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="13" t="s">
+      <c r="F39" s="49">
+        <v>41301</v>
+      </c>
+      <c r="G39" s="55">
+        <v>123493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="10" t="s">
         <v>7095</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40" s="38">
         <v>811</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="7">
         <v>18928912032</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="8">
         <v>297092033</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="9" t="s">
         <v>7096</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.25">
-      <c r="A41" s="13" t="s">
+      <c r="F40" s="49">
+        <v>41302</v>
+      </c>
+      <c r="G40" s="55">
+        <v>123494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.25">
+      <c r="A41" s="10" t="s">
         <v>7097</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="24">
         <v>811</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="7">
         <v>13631463571</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="17">
         <v>271183681</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="9" t="s">
         <v>7098</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="42" t="s">
+      <c r="F41" s="49">
+        <v>41303</v>
+      </c>
+      <c r="G41" s="55">
+        <v>123495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="39" t="s">
         <v>7099</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="40">
         <v>812</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="7">
         <v>13430205162</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="17">
         <v>375058867</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="9" t="s">
         <v>7100</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="37" t="s">
+      <c r="F42" s="49">
+        <v>41304</v>
+      </c>
+      <c r="G42" s="55">
+        <v>123496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="34" t="s">
         <v>7101</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="15">
         <v>811</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="16">
         <v>15802025774</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="17">
         <v>178341639</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="9" t="s">
         <v>7102</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="18" t="s">
+      <c r="F43" s="49">
+        <v>41305</v>
+      </c>
+      <c r="G43" s="55">
+        <v>123497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="15" t="s">
         <v>7103</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15">
         <v>13538995832</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="20">
         <v>306296496</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="9" t="s">
         <v>7104</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="18" t="s">
+      <c r="F44" s="49">
+        <v>41306</v>
+      </c>
+      <c r="G44" s="55">
+        <v>123498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="15" t="s">
         <v>7105</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15">
         <v>15013101521</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="20">
         <v>147571174</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="29" t="s">
         <v>7106</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="13" t="s">
+      <c r="F45" s="49">
+        <v>41307</v>
+      </c>
+      <c r="G45" s="55">
+        <v>123499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="10" t="s">
         <v>7107</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="6">
         <v>803</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <v>13533516873</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="8">
         <v>120560954</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="29" t="s">
         <v>7108</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="14.25">
-      <c r="A47" s="18" t="s">
+      <c r="F46" s="49">
+        <v>41308</v>
+      </c>
+      <c r="G46" s="55">
+        <v>123500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.25">
+      <c r="A47" s="15" t="s">
         <v>7109</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="18">
+      <c r="B47" s="6"/>
+      <c r="C47" s="15">
         <v>13826281027</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="20">
         <v>582575394</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="14" t="s">
         <v>7110</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="37" t="s">
+      <c r="F47" s="49">
+        <v>41309</v>
+      </c>
+      <c r="G47" s="55">
+        <v>123501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="34" t="s">
         <v>7111</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="6">
         <v>812</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="16">
         <v>15800040035</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="17">
         <v>316580998</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="29" t="s">
         <v>7112</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="44" t="s">
+      <c r="F48" s="49">
+        <v>41310</v>
+      </c>
+      <c r="G48" s="55">
+        <v>123502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="41" t="s">
         <v>7113</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="44">
+      <c r="B49" s="6"/>
+      <c r="C49" s="41">
         <v>15521123491</v>
       </c>
-      <c r="D49" s="45">
+      <c r="D49" s="42">
         <v>328766758</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="26" t="s">
         <v>7114</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="18" t="s">
+      <c r="F49" s="49">
+        <v>41311</v>
+      </c>
+      <c r="G49" s="55">
+        <v>123503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="15" t="s">
         <v>7115</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="53" t="s">
         <v>7116</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="16">
         <v>13719197645</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="17">
         <v>359149910</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="29" t="s">
         <v>7117</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="42" t="s">
+      <c r="F50" s="49">
+        <v>41312</v>
+      </c>
+      <c r="G50" s="55">
+        <v>123504</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="39" t="s">
         <v>7118</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="10">
+      <c r="B51" s="53"/>
+      <c r="C51" s="7">
         <v>15975502841</v>
       </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="32" t="s">
+      <c r="D51" s="43"/>
+      <c r="E51" s="29" t="s">
         <v>7119</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="18" t="s">
+      <c r="F51" s="49">
+        <v>41313</v>
+      </c>
+      <c r="G51" s="55">
+        <v>123505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="15" t="s">
         <v>7120</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="19">
+      <c r="B52" s="53"/>
+      <c r="C52" s="16">
         <v>15989207579</v>
       </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="32" t="s">
+      <c r="D52" s="43"/>
+      <c r="E52" s="29" t="s">
         <v>7121</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="18" t="s">
+      <c r="F52" s="49">
+        <v>41314</v>
+      </c>
+      <c r="G52" s="55">
+        <v>123506</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="15" t="s">
         <v>7122</v>
       </c>
-      <c r="B53" s="46"/>
-      <c r="C53" s="18">
+      <c r="B53" s="53"/>
+      <c r="C53" s="15">
         <v>13610200361</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="20">
         <v>15299070</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="44" t="s">
         <v>7123</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1">
-      <c r="A54" s="49" t="s">
+      <c r="F53" s="49">
+        <v>41315</v>
+      </c>
+      <c r="G53" s="55">
+        <v>123507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1">
+      <c r="A54" s="45" t="s">
         <v>7124</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="49">
+      <c r="B54" s="54"/>
+      <c r="C54" s="45">
         <v>13650917132</v>
       </c>
-      <c r="D54" s="51">
+      <c r="D54" s="46">
         <v>534300804</v>
       </c>
-      <c r="E54" s="52" t="s">
+      <c r="E54" s="47" t="s">
         <v>7125</v>
+      </c>
+      <c r="F54" s="49">
+        <v>41316</v>
+      </c>
+      <c r="G54" s="55">
+        <v>123508</v>
       </c>
     </row>
   </sheetData>
